--- a/kontingencni-tabulky/kontingenční tabulky.xlsx
+++ b/kontingencni-tabulky/kontingenční tabulky.xlsx
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="Průřez_Destinace">#N/A</definedName>
+    <definedName name="Průřez_Destinace1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
@@ -30,6 +31,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
         <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="62">
   <si>
     <t>Barr Faughny</t>
   </si>
@@ -207,16 +209,7 @@
     <t>Druhá možnost zobrazení dat</t>
   </si>
   <si>
-    <t>(Vše)</t>
-  </si>
-  <si>
     <t>Počet zákazníků</t>
-  </si>
-  <si>
-    <t>Úkol 1: zobrazit top 5 zakoupených produktů podle zákazníků s možností filtrace podle zaměstnance.</t>
-  </si>
-  <si>
-    <t>Úkol 2: zobrazit celkové tržby podle zaměstnanců s možností filtrování podle destinace.</t>
   </si>
   <si>
     <t>Podíl z tržby</t>
@@ -241,6 +234,12 @@
   </si>
   <si>
     <t>Úkol: vytvořit interaktivní graf.</t>
+  </si>
+  <si>
+    <t>Úkol 2: možnost filtrování 2 tabulek 1 tlačítkem.</t>
+  </si>
+  <si>
+    <t>Úkol 1: zobrazit top 5 zakoupených produktů podle zákazníků.</t>
   </si>
 </sst>
 </file>
@@ -495,18 +494,9 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="40">
     <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -524,13 +514,67 @@
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -549,16 +593,28 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <alignment wrapText="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -785,11 +841,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1604681728"/>
-        <c:axId val="1604665952"/>
+        <c:axId val="2019338896"/>
+        <c:axId val="2019313328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1604681728"/>
+        <c:axId val="2019338896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1604665952"/>
+        <c:crossAx val="2019313328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -839,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1604665952"/>
+        <c:axId val="2019313328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,7 +945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1604681728"/>
+        <c:crossAx val="2019338896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1509,7 +1565,7 @@
         <xdr:cNvPr id="6" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0E19A18-71E0-47F6-AF37-E73547F0A239}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E19A18-71E0-47F6-AF37-E73547F0A239}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,6 +1757,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Destinace 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Destinace 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2676525" y="752475"/>
+              <a:ext cx="1828800" cy="2162175"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Tento obrazec představuje průřez. Průřezy se dají používat v Excelu 2010 nebo v novější verzi.
+Průřez se nedá použít, pokud je obrazec upravený v dřívější verzi Excelu nebo pokud byl sešit uložený v Excelu 2003 nebo dřívější verzi.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="TM" refreshedDate="44372.919110763891" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="716">
   <cacheSource type="worksheet">
@@ -6927,110 +7060,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Zaměstnanec">
-  <location ref="A4:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item sd="0" x="7"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="0"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Celková tržba" fld="4" baseField="0" baseItem="0" numFmtId="166"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="19">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" grandTotalCaption="Celkový součet" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Zaměstnanec" colHeaderCaption="Destinace">
   <location ref="D4:K16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -7140,8 +7169,112 @@
     <dataField name="Druhá možnost zobrazení dat" fld="4" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="20">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Zaměstnanec">
+  <location ref="A4:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item sd="0" x="7"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="0"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Celková tržba" fld="4" baseField="0" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="39">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
@@ -7264,7 +7397,7 @@
     </dataField>
   </dataFields>
   <formats count="2">
-    <format dxfId="17">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7273,7 +7406,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="35">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7363,7 +7496,7 @@
     <dataField name="Celková tržba" fld="4" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="14">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7392,10 +7525,10 @@
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Produkt">
-  <location ref="A7:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A5:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField showAll="0">
       <items count="11">
         <item x="7"/>
         <item x="1"/>
@@ -7496,9 +7629,6 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
   <dataFields count="1">
     <dataField name="Počet zákazníků" fld="0" subtotal="count" baseField="3" baseItem="16"/>
   </dataFields>
@@ -7522,7 +7652,7 @@
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Zaměstnanec">
-  <location ref="D7:E18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="F5:G16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -7540,7 +7670,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField showAll="0">
       <items count="7">
         <item x="4"/>
         <item x="2"/>
@@ -7603,14 +7733,11 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
   <dataFields count="1">
     <dataField name="Celková tržba" fld="4" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7643,9 +7770,36 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Průřez_Destinace1" sourceName="Destinace">
+  <pivotTables>
+    <pivotTable tabId="5" name="Kontingenční tabulka 5"/>
+    <pivotTable tabId="5" name="Kontingenční tabulka 8"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1752300510">
+      <items count="6">
+        <i x="4" s="1"/>
+        <i x="2" s="1"/>
+        <i x="5" s="1"/>
+        <i x="0" s="1"/>
+        <i x="3" s="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <slicer name="Destinace" cache="Průřez_Destinace" caption="Destinace" style="SlicerStyleLight2" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Destinace 1" cache="Průřez_Destinace1" caption="Destinace" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -20230,7 +20384,7 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -20762,7 +20916,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -20773,7 +20927,7 @@
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -20954,12 +21108,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
@@ -20975,7 +21129,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="23">
         <v>1023435</v>
@@ -20983,7 +21137,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" s="23">
         <v>517993</v>
@@ -20991,7 +21145,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="23">
         <v>426902</v>
@@ -21007,7 +21161,7 @@
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B5:B8">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
       <formula>500000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21020,10 +21174,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21032,186 +21186,173 @@
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
+      <c r="F5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7">
+        <v>41</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23">
+        <v>283710</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="23">
+        <v>300146</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7">
-        <v>41</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="23">
-        <v>283710</v>
+        <v>37</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="23">
+        <v>303982</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B9" s="7">
-        <v>38</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="23">
-        <v>300146</v>
+        <v>35</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="23">
+        <v>311129</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B10" s="7">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="23">
-        <v>303982</v>
+        <v>35</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="23">
+        <v>312753</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7">
         <v>35</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="23">
-        <v>311129</v>
+      <c r="F11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23">
+        <v>291053</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B12" s="7">
-        <v>35</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="23">
-        <v>312753</v>
+        <v>221</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="23">
+        <v>262717</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7">
-        <v>35</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23">
-        <v>291053</v>
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="23">
+        <v>295225</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="F14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="23">
+        <v>269899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="23">
+        <v>297003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="7">
-        <v>221</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="23">
-        <v>262717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="23">
-        <v>295225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="23">
-        <v>269899</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="23">
-        <v>297003</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="G16" s="23">
         <v>2927617</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/kontingencni-tabulky/kontingenční tabulky.xlsx
+++ b/kontingencni-tabulky/kontingenční tabulky.xlsx
@@ -20,18 +20,26 @@
     <sheet name="Report 5" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_zdrojovádataC4G7201" hidden="1">'zdrojová data'!$C$4:$G$720</definedName>
     <definedName name="Průřez_Destinace">#N/A</definedName>
     <definedName name="Průřez_Destinace1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="133" r:id="rId8"/>
+    <pivotCache cacheId="136" r:id="rId9"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
+      <x14:pivotCaches>
+        <pivotCache cacheId="43" r:id="rId10"/>
+      </x14:pivotCaches>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId8"/>
-        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId11"/>
+        <x14:slicerCache r:id="rId12"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -39,6 +47,13 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Rozsah-19254f3e-66e2-48f1-a0c2-9f907eb615b9" name="Rozsah" connection="WorksheetConnection_zdrojová data!$C$4:$G$720"/>
+        </x15:modelTables>
+      </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,8 +68,31 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Datový Model" type="5" refreshedVersion="5" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" name="WorksheetConnection_zdrojová data!$C$4:$G$720" type="102" refreshedVersion="5" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Rozsah-19254f3e-66e2-48f1-a0c2-9f907eb615b9" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_zdrojovádataC4G7201"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="63">
   <si>
     <t>Barr Faughny</t>
   </si>
@@ -239,7 +277,10 @@
     <t>Úkol 2: možnost filtrování 2 tabulek 1 tlačítkem.</t>
   </si>
   <si>
-    <t>Úkol 1: zobrazit top 5 zakoupených produktů podle zákazníků.</t>
+    <t>Počet kusů</t>
+  </si>
+  <si>
+    <t>Úkol 1: zobrazit top 5 produktů podle počtu zakoupených kusů.</t>
   </si>
 </sst>
 </file>
@@ -494,7 +535,7 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="39">
     <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
@@ -514,28 +555,13 @@
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <alignment wrapText="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <alignment wrapText="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -596,7 +622,19 @@
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -841,11 +879,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2019338896"/>
-        <c:axId val="2019313328"/>
+        <c:axId val="549847456"/>
+        <c:axId val="549824064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2019338896"/>
+        <c:axId val="549847456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2019313328"/>
+        <c:crossAx val="549824064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2019313328"/>
+        <c:axId val="549824064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +983,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2019338896"/>
+        <c:crossAx val="549847456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1565,7 +1603,7 @@
         <xdr:cNvPr id="6" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E19A18-71E0-47F6-AF37-E73547F0A239}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0E19A18-71E0-47F6-AF37-E73547F0A239}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,22 +1799,22 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Destinace 1"/>
+            <xdr:cNvPr id="3" name="Destinace 1"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -1800,8 +1838,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2676525" y="752475"/>
-              <a:ext cx="1828800" cy="2162175"/>
+              <a:off x="3429000" y="762000"/>
+              <a:ext cx="1323975" cy="2066925"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1924,6 +1962,259 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="TM" refreshedDate="44373.628279861114" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Rozsah].[Produkt].[Produkt]" caption="Produkt" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="5">
+        <s v="70% Dark Bites"/>
+        <s v="Drinking Coco"/>
+        <s v="Mint Chip Choco"/>
+        <s v="Organic Choco Syrup"/>
+        <s v="Raspberry Choco"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Rozsah].[Zaměstnanec].[Zaměstnanec]" caption="Zaměstnanec" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems count="10">
+        <s v="Barr Faughny"/>
+        <s v="Brien Boise"/>
+        <s v="Carla Molina"/>
+        <s v="Curtice Advani"/>
+        <s v="Gigi Bohling"/>
+        <s v="Gunar Cockshoot"/>
+        <s v="Husein Augar"/>
+        <s v="Ches Bonnell"/>
+        <s v="Oby Sorrel"/>
+        <s v="Ram Mahesh"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Součet Částka]" caption="Součet Částka" numFmtId="0" hierarchy="8" level="32767"/>
+    <cacheField name="[Rozsah].[Destinace].[Destinace]" caption="Destinace" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="11">
+    <cacheHierarchy uniqueName="[Rozsah].[ID zákazníka]" caption="ID zákazníka" attribute="1" defaultMemberUniqueName="[Rozsah].[ID zákazníka].[All]" allUniqueName="[Rozsah].[ID zákazníka].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Zaměstnanec]" caption="Zaměstnanec" attribute="1" defaultMemberUniqueName="[Rozsah].[Zaměstnanec].[All]" allUniqueName="[Rozsah].[Zaměstnanec].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Rozsah].[Destinace]" caption="Destinace" attribute="1" defaultMemberUniqueName="[Rozsah].[Destinace].[All]" allUniqueName="[Rozsah].[Destinace].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Rozsah].[Produkt]" caption="Produkt" attribute="1" defaultMemberUniqueName="[Rozsah].[Produkt].[All]" allUniqueName="[Rozsah].[Produkt].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Rozsah].[Částka]" caption="Částka" attribute="1" defaultMemberUniqueName="[Rozsah].[Částka].[All]" allUniqueName="[Rozsah].[Částka].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Součet ID zákazníka]" caption="Součet ID zákazníka" measure="1" displayFolder="" measureGroup="Rozsah" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Jednoznačný počet ID zákazníka]" caption="Jednoznačný počet ID zákazníka" measure="1" displayFolder="" measureGroup="Rozsah" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Počet ID zákazníka]" caption="Počet ID zákazníka" measure="1" displayFolder="" measureGroup="Rozsah" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Součet Částka]" caption="Součet Částka" measure="1" displayFolder="" measureGroup="Rozsah" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Rozsah]" caption="__XL_Count Rozsah" measure="1" displayFolder="" measureGroup="Rozsah" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count of Models]" caption="__XL_Count of Models" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Rozsah" uniqueName="[Rozsah]" caption="Rozsah"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Rozsah" caption="Rozsah"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="TM" refreshedDate="44373.628280324076" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Rozsah].[Produkt].[Produkt]" caption="Produkt" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="5">
+        <s v="70% Dark Bites"/>
+        <s v="Drinking Coco"/>
+        <s v="Mint Chip Choco"/>
+        <s v="Organic Choco Syrup"/>
+        <s v="Raspberry Choco"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Jednoznačný počet ID zákazníka]" caption="Jednoznačný počet ID zákazníka" numFmtId="0" hierarchy="6" level="32767"/>
+    <cacheField name="[Measures].[Počet ID zákazníka]" caption="Počet ID zákazníka" numFmtId="0" hierarchy="7" level="32767"/>
+    <cacheField name="[Rozsah].[Destinace].[Destinace]" caption="Destinace" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="11">
+    <cacheHierarchy uniqueName="[Rozsah].[ID zákazníka]" caption="ID zákazníka" attribute="1" defaultMemberUniqueName="[Rozsah].[ID zákazníka].[All]" allUniqueName="[Rozsah].[ID zákazníka].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Zaměstnanec]" caption="Zaměstnanec" attribute="1" defaultMemberUniqueName="[Rozsah].[Zaměstnanec].[All]" allUniqueName="[Rozsah].[Zaměstnanec].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Destinace]" caption="Destinace" attribute="1" defaultMemberUniqueName="[Rozsah].[Destinace].[All]" allUniqueName="[Rozsah].[Destinace].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Rozsah].[Produkt]" caption="Produkt" attribute="1" defaultMemberUniqueName="[Rozsah].[Produkt].[All]" allUniqueName="[Rozsah].[Produkt].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Rozsah].[Částka]" caption="Částka" attribute="1" defaultMemberUniqueName="[Rozsah].[Částka].[All]" allUniqueName="[Rozsah].[Částka].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Součet ID zákazníka]" caption="Součet ID zákazníka" measure="1" displayFolder="" measureGroup="Rozsah" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Jednoznačný počet ID zákazníka]" caption="Jednoznačný počet ID zákazníka" measure="1" displayFolder="" measureGroup="Rozsah" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Počet ID zákazníka]" caption="Počet ID zákazníka" measure="1" displayFolder="" measureGroup="Rozsah" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Součet Částka]" caption="Součet Částka" measure="1" displayFolder="" measureGroup="Rozsah" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Rozsah]" caption="__XL_Count Rozsah" measure="1" displayFolder="" measureGroup="Rozsah" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count of Models]" caption="__XL_Count of Models" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Rozsah" uniqueName="[Rozsah]" caption="Rozsah"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Rozsah" caption="Rozsah"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="TM" refreshedDate="44373.624313425928" backgroundQuery="1" createdVersion="3" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="ThisWorkbookDataModel"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="11">
+    <cacheHierarchy uniqueName="[Rozsah].[ID zákazníka]" caption="ID zákazníka" attribute="1" defaultMemberUniqueName="[Rozsah].[ID zákazníka].[All]" allUniqueName="[Rozsah].[ID zákazníka].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Zaměstnanec]" caption="Zaměstnanec" attribute="1" defaultMemberUniqueName="[Rozsah].[Zaměstnanec].[All]" allUniqueName="[Rozsah].[Zaměstnanec].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Destinace]" caption="Destinace" attribute="1" defaultMemberUniqueName="[Rozsah].[Destinace].[All]" allUniqueName="[Rozsah].[Destinace].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Produkt]" caption="Produkt" attribute="1" defaultMemberUniqueName="[Rozsah].[Produkt].[All]" allUniqueName="[Rozsah].[Produkt].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Rozsah].[Částka]" caption="Částka" attribute="1" defaultMemberUniqueName="[Rozsah].[Částka].[All]" allUniqueName="[Rozsah].[Částka].[All]" dimensionUniqueName="[Rozsah]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Součet ID zákazníka]" caption="Součet ID zákazníka" measure="1" displayFolder="" measureGroup="Rozsah" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Jednoznačný počet ID zákazníka]" caption="Jednoznačný počet ID zákazníka" measure="1" displayFolder="" measureGroup="Rozsah" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Počet ID zákazníka]" caption="Počet ID zákazníka" measure="1" displayFolder="" measureGroup="Rozsah" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Součet Částka]" caption="Součet Částka" measure="1" displayFolder="" measureGroup="Rozsah" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="4"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Rozsah]" caption="__XL_Count Rozsah" measure="1" displayFolder="" measureGroup="Rozsah" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count of Models]" caption="__XL_Count of Models" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="1752300511" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="716">
   <r>
@@ -7060,7 +7351,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" grandTotalCaption="Celkový součet" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Zaměstnanec" colHeaderCaption="Destinace">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" grandTotalCaption="Celková tržba" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Zaměstnanec" colHeaderCaption="Destinace">
   <location ref="D4:K16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField numFmtId="3" showAll="0"/>
@@ -7169,7 +7460,7 @@
     <dataField name="Druhá možnost zobrazení dat" fld="4" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="37">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7270,10 +7561,10 @@
     <dataField name="Celková tržba" fld="4" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="39">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -7397,7 +7688,7 @@
     </dataField>
   </dataFields>
   <formats count="2">
-    <format dxfId="36">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7406,7 +7697,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="34">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7496,7 +7787,7 @@
     <dataField name="Celková tržba" fld="4" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="34">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7524,173 +7815,36 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Produkt">
-  <location ref="A5:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="7"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="133" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Zaměstnanec">
+  <location ref="F5:G16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField allDrilled="1" showAll="0" measureFilter="1" defaultAttributeDrillState="1">
+      <items count="6">
+        <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
         <item x="4"/>
-        <item x="2"/>
         <item x="5"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
-      <items count="23">
-        <item x="8"/>
-        <item x="0"/>
-        <item x="17"/>
-        <item x="15"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="21"/>
-        <item x="19"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="18"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="20"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Počet zákazníků" fld="0" subtotal="count" baseField="3" baseItem="16"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="3" type="count" evalOrder="-1" id="2" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="5" filterVal="5"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Zaměstnanec">
-  <location ref="F5:G16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="7"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -7734,17 +7888,160 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Celková tržba" fld="4" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Celková tržba" fld="2" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="33">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
+  <pivotHierarchies count="11">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Počet zákazníků"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Celková tržba"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="count" id="1" iMeasureHier="7">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="1"/>
+  </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_zdrojová data!$C$4:$G$720">
+        <x15:activeTabTopLevelEntity name="[Rozsah]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 1" cacheId="136" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Produkt">
+  <location ref="A5:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" measureFilter="1" sortType="descending" defaultAttributeDrillState="1">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Počet kusů" fld="2" subtotal="count" baseField="0" baseItem="16"/>
+    <dataField name="Počet zákazníků" fld="1" subtotal="count" baseField="0" baseItem="16">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FABC7310-3BB5-11E1-824E-6D434824019B}">
+          <x15:dataField isCountDistinct="1"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <pivotHierarchies count="11">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Počet zákazníků"/>
+    <pivotHierarchy dragToData="1" caption="Počet zákazníků"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="count" id="1" iMeasureHier="7">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_zdrojová data!$C$4:$G$720">
+        <x15:activeTabTopLevelEntity name="[Rozsah]"/>
+      </x15:pivotTableUISettings>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -7771,22 +8068,32 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Průřez_Destinace1" sourceName="Destinace">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Průřez_Destinace1" sourceName="[Rozsah].[Destinace]">
   <pivotTables>
-    <pivotTable tabId="5" name="Kontingenční tabulka 5"/>
-    <pivotTable tabId="5" name="Kontingenční tabulka 8"/>
+    <pivotTable tabId="5" name="Kontingenční tabulka 2"/>
+    <pivotTable tabId="5" name="Kontingenční tabulka 1"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1752300510">
-      <items count="6">
-        <i x="4" s="1"/>
-        <i x="2" s="1"/>
-        <i x="5" s="1"/>
-        <i x="0" s="1"/>
-        <i x="3" s="1"/>
-        <i x="1" s="1"/>
-      </items>
-    </tabular>
+    <olap pivotCacheId="1752300511">
+      <levels count="2">
+        <level uniqueName="[Rozsah].[Destinace].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[Rozsah].[Destinace].[Destinace]" sourceCaption="Destinace" count="6">
+          <ranges>
+            <range startItem="0">
+              <i n="[Rozsah].[Destinace].&amp;[Australia]" c="Australia"/>
+              <i n="[Rozsah].[Destinace].&amp;[Canada]" c="Canada"/>
+              <i n="[Rozsah].[Destinace].&amp;[India]" c="India"/>
+              <i n="[Rozsah].[Destinace].&amp;[New Zealand]" c="New Zealand"/>
+              <i n="[Rozsah].[Destinace].&amp;[UK]" c="UK"/>
+              <i n="[Rozsah].[Destinace].&amp;[USA]" c="USA"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="1">
+        <selection n="[Rozsah].[Destinace].[All]"/>
+      </selections>
+    </olap>
   </data>
 </slicerCacheDefinition>
 </file>
@@ -7799,7 +8106,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Destinace 1" cache="Průřez_Destinace1" caption="Destinace" rowHeight="241300"/>
+  <slicer name="Destinace 1" cache="Průřez_Destinace1" caption="Destinace" level="1" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -20479,7 +20786,7 @@
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -20539,7 +20846,7 @@
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -20864,7 +21171,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E16" s="23">
         <v>463386</v>
@@ -21097,7 +21404,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21161,7 +21468,7 @@
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B5:B8">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
       <formula>500000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21183,16 +21490,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -21205,6 +21511,9 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -21221,6 +21530,9 @@
       <c r="B6" s="7">
         <v>41</v>
       </c>
+      <c r="C6" s="7">
+        <v>34</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
       </c>
@@ -21235,6 +21547,9 @@
       <c r="B7" s="7">
         <v>38</v>
       </c>
+      <c r="C7" s="7">
+        <v>31</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
@@ -21249,6 +21564,9 @@
       <c r="B8" s="7">
         <v>37</v>
       </c>
+      <c r="C8" s="7">
+        <v>29</v>
+      </c>
       <c r="F8" s="6" t="s">
         <v>37</v>
       </c>
@@ -21258,11 +21576,14 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7">
         <v>35</v>
       </c>
+      <c r="C9" s="7">
+        <v>30</v>
+      </c>
       <c r="F9" s="6" t="s">
         <v>4</v>
       </c>
@@ -21272,11 +21593,14 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7">
         <v>35</v>
       </c>
+      <c r="C10" s="7">
+        <v>30</v>
+      </c>
       <c r="F10" s="6" t="s">
         <v>3</v>
       </c>
@@ -21286,10 +21610,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B11" s="7">
-        <v>35</v>
+        <v>186</v>
+      </c>
+      <c r="C11" s="7">
+        <v>102</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>1</v>
@@ -21299,12 +21626,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="7">
-        <v>221</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="F12" s="6" t="s">
         <v>7</v>
       </c>
